--- a/biology/Zoologie/Antilochus/Antilochus.xlsx
+++ b/biology/Zoologie/Antilochus/Antilochus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antilochus est un genre d'insectes hémiptères hétéroptères de la famille des Pyrrhocoridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été créé en 1863 par l'entomologiste suédois Carl Stål.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Antilochus ont des couleurs vives, généralement rouge et noir, et se différencient facilement des autres pyrrhocoridés par leur tête creusée transversalement derrière les yeux. Ils sont souvent confondus avec les punaises de la famille Lygaeidae, mais peuvent être distingués par l'absence d'ocelles sur la tête. Contrairement à la plupart des pyrrhocoridés, les espèces d'"Antilochus" sont prédatrices plutôt qu'herbivores.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique tropicale, y compris Madagascar, Asie du Sud et du Sud-Est, archipel malais et Nouvelle-Guinée.
 </t>
@@ -604,16 +622,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 juillet 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 juillet 2022) :
 Antilochus boerhaviae Fabricius, 1794
 Antilochus coqueberti Fabricius, 1803
 Antilochus nigripes Burmeister, 1835
 Antilochus nigrocruciatus Stål, 1855
 Antilochus reflexus Stål, 1863
 Antilochus russus Stal, 1863
-Selon NCBI  (2 juillet 2022)[2] :
+Selon NCBI  (2 juillet 2022) :
 Antilochus coquebertii Fabricius, 1803
 Antilochus lineatipes Stal, 1858
 Antilochus nigripes Burmeister, 1835
